--- a/results/FrequencyTables/27068471_T10-sgRNA.xlsx
+++ b/results/FrequencyTables/27068471_T10-sgRNA.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00340530918659546</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000735237210742203</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00065784382013776</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00537884064700875</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0219797229316616</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00150917111678663</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.00247658849934216</v>
       </c>
       <c r="I2">
-        <v>0.02</v>
+        <v>0.027822923922297</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00944199365374197</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00232180171813327</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000386966953022212</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00371488274901323</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.004024456311431</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.906315300673322</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.00100611407785775</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000580450429533318</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000580450429533318</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.985837009519387</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000464360343626654</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0012769909449733</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.922103552356629</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00417924309263989</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0272811701880659</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.98</v>
+        <v>0.985566132652271</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.991061063385187</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00448881665505766</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00243789180403994</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0139308103087996</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00139308103087996</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.965598637876325</v>
       </c>
       <c r="I3">
-        <v>0.98</v>
+        <v>0.969932667750174</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000619147124835539</v>
       </c>
       <c r="K3">
-        <v>0.99</v>
+        <v>0.905386579986069</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0.00147047442148441</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.000580450429533318</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.993808528751645</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0769677269561179</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00506926708459098</v>
       </c>
       <c r="Q3">
-        <v>0.97</v>
+        <v>0.955614890488352</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000619147124835539</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000696540515439981</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.994737249438898</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.991022366689885</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00352139927250213</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.959561953409179</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.968230013156876</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
+        <v>0.00096741738255553</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000270876867115548</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00123829424967108</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.986262673167711</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00472099682687099</v>
       </c>
       <c r="G4">
-        <v>0.87</v>
+        <v>0.816616360962774</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00464360343626654</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01</v>
+        <v>0.00236049841343549</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00576580760003096</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.86966953022212e-05</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00116090085906664</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00065784382013776</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00499187369398653</v>
       </c>
       <c r="P4">
-        <v>0.99</v>
+        <v>0.862162371333488</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00344400588189769</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0071201919356087</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0100611407785775</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00394706292082656</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00325052240538658</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.0707762557077626</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0112607383329464</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00297964553827103</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0098676573020664</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00770064236514202</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.993537651884529</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00572711090472874</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>0.959020199674948</v>
       </c>
       <c r="G5">
-        <v>0.13</v>
+        <v>0.178662642210355</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.026584629672626</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00170265459329773</v>
       </c>
       <c r="J5">
-        <v>0.99</v>
+        <v>0.987307483940871</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0.0847070660165622</v>
       </c>
       <c r="L5">
-        <v>0.96</v>
+        <v>0.998065165234889</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.994272889095271</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00147047442148441</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.0112994350282486</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.130640043340299</v>
       </c>
       <c r="Q5">
-        <v>0.03</v>
+        <v>0.0396641126847767</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.991680210510022</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00282485875706215</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000851327296648866</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00445011995975544</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0027474653664577</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0243402213450971</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00123829424967108</v>
       </c>
     </row>
   </sheetData>
